--- a/Original_Excel_Files/JY-JZ.xlsx
+++ b/Original_Excel_Files/JY-JZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC03DC-27D7-48DA-A724-EB9E093B0012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D1719-DC3A-44DB-9F37-0FA1B362E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,53 +17,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>JZ1318.S74 2003</t>
   </si>
   <si>
-    <t>Steger, Manfred B.</t>
-  </si>
-  <si>
     <t>Globalization: A Very Short Introduction</t>
   </si>
   <si>
     <t>JZ1963 .M549 1980</t>
   </si>
   <si>
-    <t>Merton, Thomas</t>
-  </si>
-  <si>
     <t>The Nonviolent Alternative</t>
   </si>
   <si>
     <t>JZ5548 .D35 2004</t>
   </si>
   <si>
-    <t>Dallmayr, Fred</t>
-  </si>
-  <si>
     <t>Peace Talks</t>
   </si>
   <si>
     <t>JZ55538 .P685</t>
   </si>
   <si>
-    <t>Zinn, Howard</t>
-  </si>
-  <si>
     <t>The Power of Nonviolence: Writings by Advocates of Peace</t>
   </si>
   <si>
     <t>JZ5534 .G58</t>
   </si>
   <si>
-    <t>O'Leary</t>
-  </si>
-  <si>
-    <t>Daniel E. (Ed)</t>
-  </si>
-  <si>
     <t>2000 O</t>
   </si>
   <si>
@@ -73,30 +55,12 @@
     <t>JZ5534 .S65 1994</t>
   </si>
   <si>
-    <t>Brady</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Nelson-Pallmeyer</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>1994 O</t>
   </si>
   <si>
     <t>Don't Just Stand There, DO Something!: Spring 1994.</t>
   </si>
   <si>
-    <t>Dallmayr</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
     <t>2004 P</t>
   </si>
   <si>
@@ -106,16 +70,19 @@
     <t>JZ5574 .H83 1986</t>
   </si>
   <si>
-    <t>Hudgens</t>
-  </si>
-  <si>
-    <t>Tom A.</t>
-  </si>
-  <si>
     <t>1986 P</t>
   </si>
   <si>
     <t>Let's Abolish War (Not a New Idea)</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -172,22 +139,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,155 +491,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:G16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B2" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>2003</v>
-      </c>
-      <c r="G9" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B3" s="6">
+        <v>1980</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>1980</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2004</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2002</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G21">
-    <sortCondition ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
